--- a/PageAutomation/OrangeHRMTestData.xlsx
+++ b/PageAutomation/OrangeHRMTestData.xlsx
@@ -14,18 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>UserName</t>
   </si>
   <si>
-    <t>Initial</t>
-  </si>
-  <si>
     <t>Admin</t>
   </si>
   <si>
     <t>admin123</t>
+  </si>
+  <si>
+    <t>TestCaseName</t>
+  </si>
+  <si>
+    <t>TC1_OrangeHRM_AddUserDetails</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>admin122</t>
+  </si>
+  <si>
+    <t>TC2_OrangeHRM_AddUserDetails</t>
   </si>
 </sst>
 </file>
@@ -367,31 +379,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
